--- a/MainTop/07.11.2024/WB_поставка_отправить.xlsx
+++ b/MainTop/07.11.2024/WB_поставка_отправить.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
-  <si>
-    <t xml:space="preserve">Баркод</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Количество</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+  <si>
+    <t xml:space="preserve">баркод</t>
+  </si>
+  <si>
+    <t xml:space="preserve">количество</t>
   </si>
   <si>
     <t xml:space="preserve">OZN1532937945</t>
@@ -458,6 +458,24 @@
   </si>
   <si>
     <t xml:space="preserve">OZN1564150206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1750741073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1750746301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1750745563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1750745576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1750745566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1750746305</t>
   </si>
 </sst>
 </file>
@@ -467,7 +485,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -493,6 +511,13 @@
       <family val="0"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -502,12 +527,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -541,8 +573,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -562,19 +594,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B145"/>
+  <dimension ref="A1:B152"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A131" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -582,12 +613,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -595,7 +626,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -603,7 +634,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -611,7 +642,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -619,7 +650,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -627,7 +658,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1403,7 +1434,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1427,7 +1458,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1475,7 +1506,7 @@
         <v>113</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1734,6 +1765,55 @@
         <v>5</v>
       </c>
     </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
